--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_no-graph_output-2.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_no-graph_output-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="25120" windowHeight="15040" tabRatio="644" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" tabRatio="644" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -646,7 +646,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -765,7 +765,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1236,7 +1236,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1344,7 +1344,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1406,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1515,7 +1515,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1638,7 +1638,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1745,7 +1745,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2005,7 +2005,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2287,7 +2287,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="3" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2413,7 +2413,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
     <col min="2" max="3" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2552,7 +2552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
@@ -2780,7 +2780,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2850,7 +2850,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_no-graph_output-2.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-0_no-graph_output-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" tabRatio="644" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" tabRatio="644" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -646,7 +646,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -765,7 +765,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1236,7 +1236,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1344,7 +1344,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1406,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1515,7 +1515,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1638,7 +1638,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1745,7 +1745,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2005,7 +2005,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2287,7 +2287,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
     <col min="2" max="3" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2413,7 +2413,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="2" customWidth="1"/>
     <col min="2" max="3" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2779,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2850,7 +2850,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
